--- a/biology/Biochimie/Glutamate_synthase_(NADPH)/Glutamate_synthase_(NADPH).xlsx
+++ b/biology/Biochimie/Glutamate_synthase_(NADPH)/Glutamate_synthase_(NADPH).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glutamate synthase à NADPH est une oxydoréductase qui catalyse la réaction :
 L-glutamine + α-cétoglutarate + NADPH + H+  
@@ -499,7 +511,7 @@
 la sous-unité α est constituée de deux domaines, l'un hydrolysant la L-glutamine en L-glutamate avec libération de NH3 (réaction 1), l'autre fixant ce dernier sur une molécule α-cétoglutarate pour donner une seconde molécule de L-glutamate (réaction 2) ;
 la sous-unité β transfère les électrons du NADPH à travers un centre fer-soufre [3Fe-4S], deux centres fer-soufre [4Fe-4S], du FMN et du FAD.
 La molécule d'ammoniac est acheminée entre les deux domaines de la sous-unité α à travers un conduit large de 32 Å. La sous-unité β stabilise cette fonction et son absence peut conduire à la production d'ammonium NH4+ à la place d'ammoniac.
-Cette enzyme est présente chez les bactéries, et est importante car elle fournit le glutamate utilisé par la glutamine synthétase pour former la glutamine par fixation d'une molécule d'ammoniac NH3[2],[3].
+Cette enzyme est présente chez les bactéries, et est importante car elle fournit le glutamate utilisé par la glutamine synthétase pour former la glutamine par fixation d'une molécule d'ammoniac NH3,.
 </t>
         </is>
       </c>
